--- a/data/2024/fid/FID-FINNUG-DE-7.xlsx
+++ b/data/2024/fid/FID-FINNUG-DE-7.xlsx
@@ -3489,10 +3489,10 @@
         <v>32</v>
       </c>
       <c r="U12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s">
         <v>32</v>
@@ -4259,13 +4259,13 @@
         <v>32</v>
       </c>
       <c r="U22" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V22" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W22" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s">
         <v>49</v>
@@ -12036,13 +12036,13 @@
         <v>32</v>
       </c>
       <c r="U123" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V123" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W123" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X123" t="s">
         <v>49</v>
